--- a/REVER_DailyTracker_Prabu_New.xlsx
+++ b/REVER_DailyTracker_Prabu_New.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01AC957-497A-446A-AE75-B77CD8FDC0B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809AD4F4-CBDE-4283-BD3D-CA99C74F1809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="52">
   <si>
     <t>No</t>
   </si>
@@ -173,6 +172,24 @@
   </si>
   <si>
     <t>View Completed</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>Laptop not started(OS Installing)</t>
+  </si>
+  <si>
+    <t>nMVAR</t>
+  </si>
+  <si>
+    <t>Form Design Changes</t>
+  </si>
+  <si>
+    <t>Active Report's to Section Report(Change request) Processing</t>
+  </si>
+  <si>
+    <t>Hold</t>
   </si>
 </sst>
 </file>
@@ -281,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -303,6 +320,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5C0BD0-55B0-4AE7-923D-30DEACEE4A1E}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -631,7 +651,7 @@
     <col min="4" max="4" width="30.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="45.77734375" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1036,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BEFF5E-91DC-432F-B077-729F15684414}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,7 +1070,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="31.77734375" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1189,6 +1209,224 @@
         <v>43</v>
       </c>
     </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44235</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44236</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44237</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44238</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44239</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44242</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44243</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44244</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44245</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44246</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Prabu_New.xlsx
+++ b/REVER_DailyTracker_Prabu_New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809AD4F4-CBDE-4283-BD3D-CA99C74F1809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88D851F-3C3F-4648-982A-64087B8177A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>Hold</t>
+  </si>
+  <si>
+    <t>Active Report's Alignment Changes</t>
+  </si>
+  <si>
+    <t>Token System, Goods Deleverd and others(samsung sony)</t>
   </si>
 </sst>
 </file>
@@ -1056,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BEFF5E-91DC-432F-B077-729F15684414}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1427,6 +1433,119 @@
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
     </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44249</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44250</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44251</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44252</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44253</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Prabu_New.xlsx
+++ b/REVER_DailyTracker_Prabu_New.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88D851F-3C3F-4648-982A-64087B8177A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA1780-DE4B-4889-8C28-4971D9D323B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN-2021" sheetId="1" r:id="rId1"/>
     <sheet name="FEB-2021" sheetId="2" r:id="rId2"/>
+    <sheet name="MAR-2021" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -196,6 +197,18 @@
   </si>
   <si>
     <t>Token System, Goods Deleverd and others(samsung sony)</t>
+  </si>
+  <si>
+    <t>Selenium log Files(Sony, Samsung), Muji</t>
+  </si>
+  <si>
+    <t>Other Sales Monthly Manually Upload to QMAVR</t>
+  </si>
+  <si>
+    <t>Muji Store chages(Japanease)</t>
+  </si>
+  <si>
+    <t>Muji Store chages(Video Search ASC,DESC Not working)</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BEFF5E-91DC-432F-B077-729F15684414}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1549,4 +1562,162 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914E8486-DC4A-45C1-BA2F-6ECA127DA289}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44257</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44258</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44259</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44260</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_Prabu_New.xlsx
+++ b/REVER_DailyTracker_Prabu_New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA1780-DE4B-4889-8C28-4971D9D323B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF8DAFB-D961-4467-B562-81CDF0BF9A88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="62">
   <si>
     <t>No</t>
   </si>
@@ -209,6 +209,18 @@
   </si>
   <si>
     <t>Muji Store chages(Video Search ASC,DESC Not working)</t>
+  </si>
+  <si>
+    <t>Active Report's to Section Report(20 reports Design completed)</t>
+  </si>
+  <si>
+    <t>Nmvar Report Changes</t>
+  </si>
+  <si>
+    <t>Section Report Export(Testing 10 reports completd)</t>
+  </si>
+  <si>
+    <t>Section Report Export(Testing 15 reports completed)</t>
   </si>
 </sst>
 </file>
@@ -1566,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914E8486-DC4A-45C1-BA2F-6ECA127DA289}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1717,6 +1729,117 @@
         <v>55</v>
       </c>
     </row>
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44263</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44264</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44265</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44266</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44267</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Prabu_New.xlsx
+++ b/REVER_DailyTracker_Prabu_New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF8DAFB-D961-4467-B562-81CDF0BF9A88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5599C5B4-DDCB-403A-A089-89E785C480F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="67">
   <si>
     <t>No</t>
   </si>
@@ -221,6 +221,21 @@
   </si>
   <si>
     <t>Section Report Export(Testing 15 reports completed)</t>
+  </si>
+  <si>
+    <t>Nmvar, Selenium log Files(Sony, Samsung)</t>
+  </si>
+  <si>
+    <t>(GSPN TO QMVAR)AND (GSPN TO QMVAR2.0)</t>
+  </si>
+  <si>
+    <t>Section Report Export(Testing 32 reports completed)</t>
+  </si>
+  <si>
+    <t>Active Report's to Section Report(32 reports Design completed)</t>
+  </si>
+  <si>
+    <t>Nmvar report design changes</t>
   </si>
 </sst>
 </file>
@@ -1578,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914E8486-DC4A-45C1-BA2F-6ECA127DA289}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1840,6 +1855,121 @@
         <v>61</v>
       </c>
     </row>
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44270</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44271</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44272</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
+        <v>44273</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44274</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Prabu_New.xlsx
+++ b/REVER_DailyTracker_Prabu_New.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5599C5B4-DDCB-403A-A089-89E785C480F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA874442-BD58-485A-9D00-5D784CEDC42A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -236,6 +236,15 @@
   </si>
   <si>
     <t>Nmvar report design changes</t>
+  </si>
+  <si>
+    <t>Selenium log file Data Verification (QMVAR TO GSPN)</t>
+  </si>
+  <si>
+    <t>Nmvar Changes</t>
+  </si>
+  <si>
+    <t>Nmvar change Request</t>
   </si>
 </sst>
 </file>
@@ -1593,10 +1602,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914E8486-DC4A-45C1-BA2F-6ECA127DA289}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1970,6 +1979,121 @@
         <v>63</v>
       </c>
     </row>
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44277</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44278</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44279</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4">
+        <v>44280</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4">
+        <v>44281</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
